--- a/Studies/USMap_Doubleday_2024/SETUPS Description Complete.xlsx
+++ b/Studies/USMap_Doubleday_2024/SETUPS Description Complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\InSPIRE\Studies\USMap_Doubleday_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085FEFB1-FAFF-4560-9552-E19ADF9FB9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB492949-150A-4AFB-B383-867D185116FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20F8F7F2-6405-4778-91BF-D0B7AC5935BA}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{20F8F7F2-6405-4778-91BF-D0B7AC5935BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
   <si>
     <t>Scenario</t>
   </si>
@@ -314,15 +314,106 @@
   <si>
     <t>Fixed Tilts</t>
   </si>
+  <si>
+    <t>CALCULATION FOR ARABLE LAND</t>
+  </si>
+  <si>
+    <t>Farming row buffer</t>
+  </si>
+  <si>
+    <t>ft</t>
+  </si>
+  <si>
+    <t>Row Pitch</t>
+  </si>
+  <si>
+    <t>Ignores Edge Buffer, assumes inifinite rows</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Arable Land</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>xp</t>
+  </si>
+  <si>
+    <t>Tracking = 0 tilt</t>
+  </si>
+  <si>
+    <t>Farming Percentage</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Projection of Panel on ground, meters</t>
+  </si>
+  <si>
+    <t>PAR CALCULATION</t>
+  </si>
+  <si>
+    <t>umol/m2-sec/PPFD</t>
+  </si>
+  <si>
+    <t>PAR = 2.45744*GI + 22.4778</t>
+  </si>
+  <si>
+    <r>
+      <t>mol m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-1 </t>
+    </r>
+  </si>
+  <si>
+    <t>PAR = GHI * 3600 / 1000000* 0.43 * 638.89</t>
+  </si>
+  <si>
+    <t>PAR  = GHI [Wh] * 3600/1000000 * 0.43 * 127.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference: Chong Seok PVPMC </t>
+  </si>
+  <si>
+    <t>Other equations that assume % of spectra and tranasform units; varying if W or Wh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,12 +482,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="0"/>
       <name val="Aptos Narrow"/>
@@ -411,8 +496,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -500,6 +604,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,9 +758,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -652,36 +767,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -697,96 +791,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,6 +926,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,6 +940,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>752</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>133609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5EF8DDF-E181-C86E-18FA-666A890D8DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="13277850"/>
+          <a:ext cx="5391902" cy="1857634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1154,17 +1340,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932A1107-9899-4DFE-A9E6-0ED2844D3F4A}">
-  <dimension ref="B2:AA65"/>
+  <dimension ref="B2:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
@@ -1176,68 +1362,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="42"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="3" spans="2:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33" t="s">
+      <c r="L3" s="25"/>
+      <c r="M3" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="33" t="s">
+      <c r="N3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="33" t="s">
+      <c r="O3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="34" t="s">
+      <c r="R3" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="25" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1251,7 +1437,7 @@
       <c r="D4" s="3">
         <v>1.5</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="18">
         <v>5</v>
       </c>
       <c r="F4" s="3">
@@ -1266,22 +1452,22 @@
       <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="18">
         <v>3</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="18" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="27" t="s">
         <v>14</v>
       </c>
       <c r="N4">
         <v>0.4</v>
       </c>
-      <c r="O4" s="26">
+      <c r="O4" s="18">
         <v>50</v>
       </c>
       <c r="P4" s="3">
@@ -1293,275 +1479,266 @@
       <c r="R4" s="4">
         <v>20</v>
       </c>
-      <c r="T4" s="36"/>
+      <c r="T4" s="27"/>
       <c r="U4" s="3"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>2.4</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>2.4</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="1">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>180</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>0.13</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="28" t="s">
         <v>14</v>
       </c>
       <c r="N5">
         <v>0.4</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="1">
         <v>50</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="6">
         <v>20</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="6"/>
+      <c r="T5" s="28"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>2.4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>2.4</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>180</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="19">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="N6">
         <v>0.4</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="1">
         <v>50</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="6">
         <v>20</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="U6" s="6"/>
+      <c r="T6" s="28"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>1.5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>1.5</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="1">
         <v>8</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>180</v>
       </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0.13</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="K7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="37" t="s">
+      <c r="M7" s="28" t="s">
         <v>14</v>
       </c>
       <c r="N7">
         <v>0.25</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="1">
         <v>50</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="6">
         <v>20</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>1.5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>1.5</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>180</v>
       </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>0.13</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="16">
+      <c r="I8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
         <v>9</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="37" t="s">
+      <c r="M8" s="28" t="s">
         <v>14</v>
       </c>
       <c r="N8">
         <v>0.18181818181818182</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="1">
         <v>50</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>10</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="6">
         <v>20</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="U8" s="6"/>
+      <c r="T8" s="28"/>
     </row>
     <row r="9" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>1.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>1.5</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>180</v>
       </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>0.13</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="1">
         <v>3</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="35"/>
-      <c r="M9" s="38" t="s">
+      <c r="M9" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N9">
         <v>0.3</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>10</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="6">
         <v>20</v>
       </c>
-      <c r="T9" s="39">
+      <c r="T9" s="28">
         <v>0.3</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="20">
         <f>2/0.3</f>
         <v>6.666666666666667</v>
       </c>
@@ -1570,56 +1747,55 @@
       <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>2.4</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>2.4</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>180</v>
       </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>0.13</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J10" s="16">
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="1">
         <v>3</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N10">
         <v>0.3</v>
       </c>
-      <c r="O10" s="29" t="s">
+      <c r="O10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>10</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="6">
         <v>20</v>
       </c>
-      <c r="T10" s="39">
+      <c r="T10" s="28">
         <v>0.3</v>
       </c>
-      <c r="U10" s="28">
+      <c r="U10" s="20">
         <f>2/0.3</f>
         <v>6.666666666666667</v>
       </c>
@@ -1628,56 +1804,55 @@
       <c r="B11" s="5">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>2.4</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>2.4</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>180</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="19">
         <v>0.51300000000000001</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="1">
         <v>3</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="35"/>
-      <c r="M11" s="38" t="s">
+      <c r="M11" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N11">
         <v>0.3</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>10</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="6">
         <v>20</v>
       </c>
-      <c r="T11" s="39">
+      <c r="T11" s="28">
         <v>0.3</v>
       </c>
-      <c r="U11" s="28">
+      <c r="U11" s="20">
         <f>2/0.3</f>
         <v>6.666666666666667</v>
       </c>
@@ -1686,132 +1861,131 @@
       <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1.5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>1.5</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>180</v>
       </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0.13</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="16">
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
         <v>6</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="35"/>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="N12">
         <v>0.18179999999999999</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>10</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="6">
         <v>20</v>
       </c>
-      <c r="T12" s="39">
+      <c r="T12" s="28">
         <v>0.18179999999999999</v>
       </c>
-      <c r="U12" s="28">
+      <c r="U12" s="20">
         <f>2/T12</f>
         <v>11.001100110011002</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>10</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0.6</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="23">
         <v>8.6</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>90</v>
       </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
         <v>0.13</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="40">
+      <c r="L13" s="10"/>
+      <c r="M13" s="30">
         <v>90</v>
       </c>
-      <c r="N13" s="40">
+      <c r="N13" s="30">
         <v>0.23255813953488372</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>10</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <v>20</v>
       </c>
-      <c r="T13" s="40">
+      <c r="T13" s="30">
         <f>2/E13</f>
         <v>0.23255813953488372</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="10">
         <v>8.6</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -1847,373 +2021,347 @@
       <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>25</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>25</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="33">
         <f>2*COS(RADIANS(D18))</f>
         <v>1.8126155740732999</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="33">
         <f>F18+E18</f>
         <v>3.8126155740733001</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="34">
         <f>B18/G18</f>
         <v>0.52457426172218347</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="34">
         <v>0.65</v>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="34">
         <f>2/I18</f>
         <v>3.0769230769230766</v>
       </c>
-      <c r="K18" s="7"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>50</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>40</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="33">
         <f>2*COS(RADIANS(D19))</f>
         <v>1.532088886237956</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="33">
         <f>F19+E19</f>
         <v>3.5320888862379558</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45">
+      <c r="H19" s="34"/>
+      <c r="I19" s="34">
         <v>0.25</v>
       </c>
-      <c r="J19" s="45">
+      <c r="J19" s="34">
         <f>2/I19</f>
         <v>8</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
+      <c r="H20" s="34"/>
+      <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>0.18</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="34">
         <f>F21/G21</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>0.4</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="34">
         <f t="shared" ref="H22:H24" si="0">F22/G22</f>
         <v>5</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>0.6</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="34">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
+      <c r="K23" s="6"/>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="10">
         <v>0.8</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="35">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="21" t="s">
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="16" t="s">
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="23"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <f>C28*COS(RADIANS(C29))</f>
         <v>2</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30">
         <f>C30*100/C27</f>
         <v>25</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30">
         <f>D30/10</f>
         <v>2.5</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <f>ROUND(D30/10,0)</f>
         <v>3</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <f>C27-C30</f>
         <v>6</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f>C31*100/C27</f>
         <v>75</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <f>D31/10</f>
         <v>7.5</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <f>ROUND(D31/10,0)</f>
         <v>8</v>
       </c>
-      <c r="G31" s="25" t="s">
+      <c r="G31" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
     </row>
     <row r="35" spans="3:25" x14ac:dyDescent="0.25">
       <c r="O35"/>
     </row>
     <row r="36" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="65"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="66" t="s">
+      <c r="C36" s="73"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="65" t="s">
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-    </row>
-    <row r="37" spans="3:25" s="51" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="65"/>
-      <c r="D37" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="52" t="s">
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
+      <c r="Q36" s="73"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="73"/>
+      <c r="V36" s="73"/>
+      <c r="W36" s="73"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+    </row>
+    <row r="37" spans="3:25" s="37" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="73"/>
+      <c r="D37" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="53" t="s">
+      <c r="F37" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="53" t="s">
+      <c r="G37" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H37" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="53" t="s">
+      <c r="I37" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="54" t="s">
+      <c r="J37" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="54" t="s">
+      <c r="K37" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="54" t="s">
+      <c r="L37" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M37" s="54" t="s">
+      <c r="M37" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N37" s="56" t="s">
+      <c r="N37" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O37" s="57" t="s">
+      <c r="O37" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="58" t="s">
+      <c r="P37" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="58" t="s">
+      <c r="Q37" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="R37" s="55" t="s">
+      <c r="R37" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="S37" s="59" t="s">
+      <c r="S37" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="T37" s="60" t="s">
+      <c r="T37" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="U37" s="61" t="s">
+      <c r="U37" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="62" t="s">
+      <c r="V37" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="W37" s="62" t="s">
+      <c r="W37" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="X37" s="63" t="s">
+      <c r="X37" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="Y37" s="64" t="s">
+      <c r="Y37" s="50" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="74" t="s">
         <v>66</v>
       </c>
       <c r="D38">
@@ -2266,7 +2414,7 @@
       </c>
     </row>
     <row r="39" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C39" s="69"/>
+      <c r="C39" s="74"/>
       <c r="D39">
         <v>2</v>
       </c>
@@ -2317,7 +2465,7 @@
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="69"/>
+      <c r="C40" s="74"/>
       <c r="D40">
         <v>3</v>
       </c>
@@ -2368,7 +2516,7 @@
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="69"/>
+      <c r="C41" s="74"/>
       <c r="D41">
         <v>4</v>
       </c>
@@ -2419,7 +2567,7 @@
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C42" s="69"/>
+      <c r="C42" s="74"/>
       <c r="D42">
         <v>5</v>
       </c>
@@ -2488,7 +2636,7 @@
       </c>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="51" t="s">
         <v>67</v>
       </c>
       <c r="D43">
@@ -2575,87 +2723,87 @@
       <c r="O47"/>
     </row>
     <row r="48" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="68" t="s">
+      <c r="C48" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="48"/>
-      <c r="F48" s="66" t="s">
+      <c r="E48" s="77"/>
+      <c r="F48" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="65" t="s">
+      <c r="G48" s="72"/>
+      <c r="H48" s="72"/>
+      <c r="I48" s="72"/>
+      <c r="J48" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
+      <c r="Q48" s="73"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
     </row>
     <row r="49" spans="3:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="68"/>
-      <c r="D49" s="49" t="s">
+      <c r="C49" s="75"/>
+      <c r="D49" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="49"/>
-      <c r="F49" s="53" t="s">
+      <c r="E49" s="76"/>
+      <c r="F49" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="53" t="s">
+      <c r="G49" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="53" t="s">
+      <c r="I49" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="54" t="s">
+      <c r="J49" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K49" s="54" t="s">
+      <c r="K49" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L49" s="54" t="s">
+      <c r="L49" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M49" s="54" t="s">
+      <c r="M49" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N49" s="56" t="s">
+      <c r="N49" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O49" s="57" t="s">
+      <c r="O49" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P49" s="58" t="s">
+      <c r="P49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" s="58" t="s">
+      <c r="Q49" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="55" t="s">
+      <c r="R49" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="S49" s="59" t="s">
+      <c r="S49" s="45" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="68"/>
-      <c r="D50" s="22">
+      <c r="C50" s="75"/>
+      <c r="D50" s="71">
         <v>3.8</v>
       </c>
-      <c r="E50" s="22"/>
+      <c r="E50" s="71"/>
       <c r="F50">
         <v>0</v>
       </c>
@@ -2700,11 +2848,11 @@
       </c>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="68"/>
-      <c r="D51" s="22">
+      <c r="C51" s="75"/>
+      <c r="D51" s="71">
         <v>4</v>
       </c>
-      <c r="E51" s="22"/>
+      <c r="E51" s="71"/>
       <c r="F51">
         <v>0</v>
       </c>
@@ -2749,11 +2897,11 @@
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="68"/>
-      <c r="D52" s="22">
+      <c r="C52" s="75"/>
+      <c r="D52" s="71">
         <v>4.5</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="71"/>
       <c r="F52">
         <v>0</v>
       </c>
@@ -2798,11 +2946,11 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="68"/>
-      <c r="D53" s="22">
+      <c r="C53" s="75"/>
+      <c r="D53" s="71">
         <v>5</v>
       </c>
-      <c r="E53" s="22"/>
+      <c r="E53" s="71"/>
       <c r="F53">
         <v>0</v>
       </c>
@@ -2847,11 +2995,11 @@
       </c>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="68"/>
-      <c r="D54" s="22">
+      <c r="C54" s="75"/>
+      <c r="D54" s="71">
         <v>5.5</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" s="71"/>
       <c r="F54">
         <v>0</v>
       </c>
@@ -2896,11 +3044,11 @@
       </c>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="68"/>
-      <c r="D55" s="22">
+      <c r="C55" s="75"/>
+      <c r="D55" s="71">
         <v>6</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="71"/>
       <c r="F55">
         <v>0</v>
       </c>
@@ -2945,11 +3093,11 @@
       </c>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="68"/>
-      <c r="D56" s="22">
+      <c r="C56" s="75"/>
+      <c r="D56" s="71">
         <v>6.5</v>
       </c>
-      <c r="E56" s="22"/>
+      <c r="E56" s="71"/>
       <c r="F56">
         <v>0</v>
       </c>
@@ -2994,11 +3142,11 @@
       </c>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="68"/>
-      <c r="D57" s="22">
-        <v>7</v>
-      </c>
-      <c r="E57" s="22"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="71">
+        <v>7</v>
+      </c>
+      <c r="E57" s="71"/>
       <c r="F57">
         <v>0</v>
       </c>
@@ -3043,11 +3191,11 @@
       </c>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="68"/>
-      <c r="D58" s="22">
+      <c r="C58" s="75"/>
+      <c r="D58" s="71">
         <v>7.5</v>
       </c>
-      <c r="E58" s="22"/>
+      <c r="E58" s="71"/>
       <c r="F58">
         <v>0</v>
       </c>
@@ -3092,11 +3240,11 @@
       </c>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="68"/>
-      <c r="D59" s="22">
+      <c r="C59" s="75"/>
+      <c r="D59" s="71">
         <v>8</v>
       </c>
-      <c r="E59" s="22"/>
+      <c r="E59" s="71"/>
       <c r="F59">
         <v>0</v>
       </c>
@@ -3141,11 +3289,11 @@
       </c>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="68"/>
-      <c r="D60" s="22">
+      <c r="C60" s="75"/>
+      <c r="D60" s="71">
         <v>8.5</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="71"/>
       <c r="F60">
         <v>0</v>
       </c>
@@ -3190,11 +3338,11 @@
       </c>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="68"/>
-      <c r="D61" s="22">
+      <c r="C61" s="75"/>
+      <c r="D61" s="71">
         <v>9</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" s="71"/>
       <c r="F61">
         <v>0</v>
       </c>
@@ -3239,10 +3387,9 @@
       </c>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D62" s="50" t="s">
+      <c r="D62" t="s">
         <v>64</v>
       </c>
-      <c r="E62" s="50"/>
       <c r="F62">
         <v>0</v>
       </c>
@@ -3290,19 +3437,173 @@
       <c r="M63" s="1"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N64" s="1"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C65" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
       <c r="O65"/>
       <c r="AA65" s="1"/>
     </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" s="59"/>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="52">
+        <f>F67*0.3048</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="E67" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="F67">
+        <v>0.5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C68" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="52">
+        <v>5</v>
+      </c>
+      <c r="E68" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C69" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="52">
+        <v>2</v>
+      </c>
+      <c r="E69" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" s="59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71">
+        <f>D69/D68</f>
+        <v>0.4</v>
+      </c>
+      <c r="E71" s="59"/>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72">
+        <f>D69*COS(RADIANS(D70))</f>
+        <v>2</v>
+      </c>
+      <c r="E72" s="61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C73" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <f>D68-D72</f>
+        <v>3</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74">
+        <f>D73-2*D67</f>
+        <v>2.6951999999999998</v>
+      </c>
+      <c r="E74" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" s="54">
+        <f>D74*100/D68</f>
+        <v>53.903999999999996</v>
+      </c>
+      <c r="E75" s="60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C79" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="65"/>
+      <c r="E79" s="66"/>
+    </row>
+    <row r="80" spans="3:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C82" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="E84" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J36:Y36"/>
+  <mergeCells count="29">
     <mergeCell ref="J48:S48"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C48:C61"/>
@@ -3316,22 +3617,27 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
     <mergeCell ref="D60:E60"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="F36:I36"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J36:Y36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Studies/USMap_Doubleday_2024/SETUPS Description Complete.xlsx
+++ b/Studies/USMap_Doubleday_2024/SETUPS Description Complete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\InSPIRE\Studies\USMap_Doubleday_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tford\dev\InSPIRE\Studies\USMap_Doubleday_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB492949-150A-4AFB-B383-867D185116FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1E840B-FF39-4D73-A020-3C6662939F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{20F8F7F2-6405-4778-91BF-D0B7AC5935BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20F8F7F2-6405-4778-91BF-D0B7AC5935BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,8 @@
     <author>tc={9BA182C5-51A6-44C4-BCA5-828D6AE315C2}</author>
     <author>tc={7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}</author>
     <author>tc={E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}</author>
+    <author>tc={2905C271-28C6-4CBE-BD8B-C8ED60F4304D}</author>
+    <author>tc={20EEDFF8-42AB-4C7B-A02A-728702A1D09F}</author>
   </authors>
   <commentList>
     <comment ref="F36" authorId="0" shapeId="0" xr:uid="{1111A611-2419-474B-8843-ABFCD803EC98}">
@@ -89,12 +91,30 @@
     Based on specific site pitch, choose one of these bins</t>
       </text>
     </comment>
+    <comment ref="F63" authorId="5" shapeId="0" xr:uid="{2905C271-28C6-4CBE-BD8B-C8ED60F4304D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is inclusive (0 to 2 means ground blocks 0, 1 and 2)
+Reply:
+    Still starts at 0 though 😝</t>
+      </text>
+    </comment>
+    <comment ref="D64" authorId="6" shapeId="0" xr:uid="{20EEDFF8-42AB-4C7B-A02A-728702A1D09F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Based on specific site pitch, choose one of these bins</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="99">
   <si>
     <t>Scenario</t>
   </si>
@@ -405,6 +425,33 @@
   <si>
     <t>Other equations that assume % of spectra and tranasform units; varying if W or Wh</t>
   </si>
+  <si>
+    <t>PITCH BINS</t>
+  </si>
+  <si>
+    <t>3.8 &lt;= pitch &lt; 3.8492</t>
+  </si>
+  <si>
+    <t>3.8492 &lt;= pitch &lt;4.9491</t>
+  </si>
+  <si>
+    <t>4.9491 &lt;= pitch &lt; 6.9355</t>
+  </si>
+  <si>
+    <t>11.5465 &lt;= pitch &lt; 12</t>
+  </si>
+  <si>
+    <t>pitch resolution</t>
+  </si>
+  <si>
+    <t>6.9355 &lt;= pitch &lt; 11.5465</t>
+  </si>
+  <si>
+    <t>Fixed Tilts BINNED</t>
+  </si>
+  <si>
+    <t>calculated with 30 degrees tilt</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +460,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +560,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -872,6 +925,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,25 +970,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,13 +1001,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>752</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>133609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1335,15 +1388,24 @@
   <threadedComment ref="D49" dT="2025-08-26T21:16:42.62" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}">
     <text>Based on specific site pitch, choose one of these bins</text>
   </threadedComment>
+  <threadedComment ref="F63" dT="2025-08-26T20:46:04.80" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{2905C271-28C6-4CBE-BD8B-C8ED60F4304D}">
+    <text>This is inclusive (0 to 2 means ground blocks 0, 1 and 2)</text>
+  </threadedComment>
+  <threadedComment ref="F63" dT="2025-08-26T21:20:41.65" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{46181303-F1FB-4AE7-89D7-9C730F5FE5C5}" parentId="{2905C271-28C6-4CBE-BD8B-C8ED60F4304D}">
+    <text>Still starts at 0 though 😝</text>
+  </threadedComment>
+  <threadedComment ref="D64" dT="2025-08-26T21:16:42.62" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{20EEDFF8-42AB-4C7B-A02A-728702A1D09F}">
+    <text>Based on specific site pitch, choose one of these bins</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932A1107-9899-4DFE-A9E6-0ED2844D3F4A}">
-  <dimension ref="B2:AA84"/>
+  <dimension ref="B2:AA116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="C50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,10 +1427,10 @@
       <c r="B2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="67"/>
+      <c r="U2" s="73"/>
     </row>
     <row r="3" spans="2:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
@@ -2157,23 +2219,23 @@
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="68" t="s">
+      <c r="G26" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
+      <c r="H26" s="75"/>
+      <c r="I26" s="75"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>3.8</v>
       </c>
       <c r="F27" s="6"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="67"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -2183,16 +2245,16 @@
         <v>2</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
@@ -2203,9 +2265,9 @@
       <c r="F29" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
@@ -2213,25 +2275,25 @@
       </c>
       <c r="C30">
         <f>C28*COS(RADIANS(C29))</f>
-        <v>2</v>
+        <v>1.7320508075688774</v>
       </c>
       <c r="D30">
         <f>C30*100/C27</f>
-        <v>25</v>
+        <v>45.580284409707303</v>
       </c>
       <c r="E30">
         <f>D30/10</f>
-        <v>2.5</v>
+        <v>4.5580284409707303</v>
       </c>
       <c r="F30" s="6">
         <f>ROUND(D30/10,0)</f>
-        <v>3</v>
-      </c>
-      <c r="G30" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
@@ -2239,60 +2301,60 @@
       </c>
       <c r="C31" s="10">
         <f>C27-C30</f>
-        <v>6</v>
+        <v>2.0679491924311222</v>
       </c>
       <c r="D31" s="10">
         <f>C31*100/C27</f>
-        <v>75</v>
+        <v>54.419715590292689</v>
       </c>
       <c r="E31" s="10">
         <f>D31/10</f>
-        <v>7.5</v>
+        <v>5.4419715590292688</v>
       </c>
       <c r="F31" s="11">
         <f>ROUND(D31/10,0)</f>
-        <v>8</v>
-      </c>
-      <c r="G31" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
     </row>
     <row r="35" spans="3:25" x14ac:dyDescent="0.25">
       <c r="O35"/>
     </row>
     <row r="36" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="73"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
-      <c r="F36" s="72" t="s">
+      <c r="F36" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73" t="s">
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
     </row>
     <row r="37" spans="3:25" s="37" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="73"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="38" t="s">
         <v>0</v>
       </c>
@@ -2361,7 +2423,7 @@
       </c>
     </row>
     <row r="38" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="63" t="s">
         <v>66</v>
       </c>
       <c r="D38">
@@ -2414,7 +2476,7 @@
       </c>
     </row>
     <row r="39" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C39" s="74"/>
+      <c r="C39" s="63"/>
       <c r="D39">
         <v>2</v>
       </c>
@@ -2465,7 +2527,7 @@
       </c>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="74"/>
+      <c r="C40" s="63"/>
       <c r="D40">
         <v>3</v>
       </c>
@@ -2516,7 +2578,7 @@
       </c>
     </row>
     <row r="41" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="74"/>
+      <c r="C41" s="63"/>
       <c r="D41">
         <v>4</v>
       </c>
@@ -2567,7 +2629,7 @@
       </c>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C42" s="74"/>
+      <c r="C42" s="63"/>
       <c r="D42">
         <v>5</v>
       </c>
@@ -2723,38 +2785,38 @@
       <c r="O47"/>
     </row>
     <row r="48" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="72" t="s">
+      <c r="E48" s="66"/>
+      <c r="F48" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73" t="s">
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
     </row>
     <row r="49" spans="3:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="75"/>
-      <c r="D49" s="76" t="s">
+      <c r="C49" s="64"/>
+      <c r="D49" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="76"/>
+      <c r="E49" s="65"/>
       <c r="F49" s="39" t="s">
         <v>57</v>
       </c>
@@ -2799,11 +2861,11 @@
       </c>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="75"/>
-      <c r="D50" s="71">
+      <c r="C50" s="64"/>
+      <c r="D50" s="67">
         <v>3.8</v>
       </c>
-      <c r="E50" s="71"/>
+      <c r="E50" s="67"/>
       <c r="F50">
         <v>0</v>
       </c>
@@ -2848,11 +2910,11 @@
       </c>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="75"/>
-      <c r="D51" s="71">
+      <c r="C51" s="64"/>
+      <c r="D51" s="67">
         <v>4</v>
       </c>
-      <c r="E51" s="71"/>
+      <c r="E51" s="67"/>
       <c r="F51">
         <v>0</v>
       </c>
@@ -2897,11 +2959,11 @@
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="75"/>
-      <c r="D52" s="71">
+      <c r="C52" s="64"/>
+      <c r="D52" s="67">
         <v>4.5</v>
       </c>
-      <c r="E52" s="71"/>
+      <c r="E52" s="67"/>
       <c r="F52">
         <v>0</v>
       </c>
@@ -2946,11 +3008,11 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="75"/>
-      <c r="D53" s="71">
+      <c r="C53" s="64"/>
+      <c r="D53" s="67">
         <v>5</v>
       </c>
-      <c r="E53" s="71"/>
+      <c r="E53" s="67"/>
       <c r="F53">
         <v>0</v>
       </c>
@@ -2995,11 +3057,11 @@
       </c>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="75"/>
-      <c r="D54" s="71">
+      <c r="C54" s="64"/>
+      <c r="D54" s="67">
         <v>5.5</v>
       </c>
-      <c r="E54" s="71"/>
+      <c r="E54" s="67"/>
       <c r="F54">
         <v>0</v>
       </c>
@@ -3044,11 +3106,11 @@
       </c>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="75"/>
-      <c r="D55" s="71">
+      <c r="C55" s="64"/>
+      <c r="D55" s="67">
         <v>6</v>
       </c>
-      <c r="E55" s="71"/>
+      <c r="E55" s="67"/>
       <c r="F55">
         <v>0</v>
       </c>
@@ -3093,11 +3155,11 @@
       </c>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="75"/>
-      <c r="D56" s="71">
+      <c r="C56" s="64"/>
+      <c r="D56" s="67">
         <v>6.5</v>
       </c>
-      <c r="E56" s="71"/>
+      <c r="E56" s="67"/>
       <c r="F56">
         <v>0</v>
       </c>
@@ -3142,11 +3204,11 @@
       </c>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="75"/>
-      <c r="D57" s="71">
+      <c r="C57" s="64"/>
+      <c r="D57" s="67">
         <v>7</v>
       </c>
-      <c r="E57" s="71"/>
+      <c r="E57" s="67"/>
       <c r="F57">
         <v>0</v>
       </c>
@@ -3191,11 +3253,11 @@
       </c>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="75"/>
-      <c r="D58" s="71">
+      <c r="C58" s="64"/>
+      <c r="D58" s="67">
         <v>7.5</v>
       </c>
-      <c r="E58" s="71"/>
+      <c r="E58" s="67"/>
       <c r="F58">
         <v>0</v>
       </c>
@@ -3240,11 +3302,11 @@
       </c>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="75"/>
-      <c r="D59" s="71">
+      <c r="C59" s="64"/>
+      <c r="D59" s="67">
         <v>8</v>
       </c>
-      <c r="E59" s="71"/>
+      <c r="E59" s="67"/>
       <c r="F59">
         <v>0</v>
       </c>
@@ -3289,11 +3351,11 @@
       </c>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="75"/>
-      <c r="D60" s="71">
+      <c r="C60" s="64"/>
+      <c r="D60" s="67">
         <v>8.5</v>
       </c>
-      <c r="E60" s="71"/>
+      <c r="E60" s="67"/>
       <c r="F60">
         <v>0</v>
       </c>
@@ -3338,11 +3400,11 @@
       </c>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="75"/>
-      <c r="D61" s="71">
+      <c r="C61" s="64"/>
+      <c r="D61" s="67">
         <v>9</v>
       </c>
-      <c r="E61" s="71"/>
+      <c r="E61" s="67"/>
       <c r="F61">
         <v>0</v>
       </c>
@@ -3390,220 +3452,629 @@
       <c r="D62" t="s">
         <v>64</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
+      <c r="M62" s="1"/>
+      <c r="O62"/>
+    </row>
+    <row r="63" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="66"/>
+      <c r="F63" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+    </row>
+    <row r="64" spans="3:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="64"/>
+      <c r="D64" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="65"/>
+      <c r="F64" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G64" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="I64" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="L64" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="M64" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="N64" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="O64" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="P64" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q64" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="R64" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="S64" s="45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="65" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C65" s="64"/>
+      <c r="D65" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" s="67"/>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>5</v>
+      </c>
+      <c r="L65" t="s">
+        <v>45</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65">
+        <v>7</v>
+      </c>
+      <c r="P65">
+        <v>7</v>
+      </c>
+      <c r="Q65">
+        <v>8</v>
+      </c>
+      <c r="R65">
+        <v>8</v>
+      </c>
+      <c r="S65" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA65" s="1"/>
+    </row>
+    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C66" s="64"/>
+      <c r="D66" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" s="67"/>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66" t="s">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>4</v>
+      </c>
+      <c r="L66" t="s">
+        <v>45</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>6</v>
+      </c>
+      <c r="Q66">
+        <v>8</v>
+      </c>
+      <c r="R66">
+        <v>8</v>
+      </c>
+      <c r="S66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C67" s="64"/>
+      <c r="D67" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="67"/>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
+        <v>45</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>5</v>
+      </c>
+      <c r="P67">
+        <v>5</v>
+      </c>
+      <c r="Q67">
+        <v>8</v>
+      </c>
+      <c r="R67">
+        <v>8</v>
+      </c>
+      <c r="S67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C68" s="64"/>
+      <c r="D68" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="67"/>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>1</v>
       </c>
-      <c r="H62" t="s">
-        <v>45</v>
-      </c>
-      <c r="I62" t="s">
-        <v>45</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>45</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>5</v>
+      </c>
+      <c r="P68">
+        <v>5</v>
+      </c>
+      <c r="Q68">
+        <v>7</v>
+      </c>
+      <c r="R68">
+        <v>7</v>
+      </c>
+      <c r="S68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C69" s="64"/>
+      <c r="D69" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E69" s="67"/>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
         <v>1</v>
       </c>
-      <c r="L62" t="s">
-        <v>45</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N62">
+      <c r="L69" t="s">
+        <v>45</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N69">
         <v>1</v>
       </c>
-      <c r="O62">
+      <c r="O69">
         <v>4</v>
       </c>
-      <c r="P62">
+      <c r="P69">
         <v>4</v>
       </c>
-      <c r="Q62">
+      <c r="Q69">
         <v>7</v>
       </c>
-      <c r="R62">
+      <c r="R69">
         <v>7</v>
       </c>
-      <c r="S62" t="s">
+      <c r="S69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="M63" s="1"/>
-      <c r="O63"/>
-    </row>
-    <row r="64" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N64" s="1"/>
-      <c r="O64"/>
-    </row>
-    <row r="65" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C65" s="55" t="s">
+    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C70" s="64"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="M70" s="1"/>
+      <c r="O70"/>
+    </row>
+    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C71" s="64"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="M71" s="1"/>
+      <c r="O71"/>
+    </row>
+    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C72" s="64"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="M72" s="1"/>
+      <c r="O72"/>
+    </row>
+    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C73" s="64"/>
+    </row>
+    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C74" s="64"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="M74" s="1"/>
+      <c r="O74"/>
+    </row>
+    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C75" s="64"/>
+      <c r="D75" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" s="67"/>
+      <c r="M75" s="1"/>
+      <c r="O75"/>
+    </row>
+    <row r="76" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C76" s="64"/>
+      <c r="D76">
+        <f>8.2/1000</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>95</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="O76"/>
+    </row>
+    <row r="79" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C80" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
-      <c r="O65"/>
-      <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C66" s="5" t="s">
+      <c r="D80" s="56"/>
+      <c r="E80" s="57"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="59"/>
-    </row>
-    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C67" s="5" t="s">
+      <c r="E81" s="59"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="52">
-        <f>F67*0.3048</f>
+      <c r="D82" s="52">
+        <f>F82*0.3048</f>
         <v>0.15240000000000001</v>
       </c>
-      <c r="E67" s="59" t="s">
+      <c r="E82" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F67">
+      <c r="F82">
         <v>0.5</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G82" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C68" s="5" t="s">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D83" s="52">
         <v>5</v>
       </c>
-      <c r="E68" s="59" t="s">
+      <c r="E83" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C69" s="5" t="s">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D69" s="52">
+      <c r="D84" s="52">
         <v>2</v>
       </c>
-      <c r="E69" s="59" t="s">
+      <c r="E84" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C70" s="5" t="s">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" s="59" t="s">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" s="59" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C71" s="5" t="s">
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D71">
-        <f>D69/D68</f>
+      <c r="D86">
+        <f>D84/D83</f>
         <v>0.4</v>
       </c>
-      <c r="E71" s="59"/>
-    </row>
-    <row r="72" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C72" s="5" t="s">
+      <c r="E86" s="59"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D72">
-        <f>D69*COS(RADIANS(D70))</f>
+      <c r="D87">
+        <f>D84*COS(RADIANS(D85))</f>
         <v>2</v>
       </c>
-      <c r="E72" s="61" t="s">
+      <c r="E87" s="61" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C73" s="5" t="s">
+    <row r="88" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C88" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D73">
-        <f>D68-D72</f>
+      <c r="D88">
+        <f>D83-D87</f>
         <v>3</v>
       </c>
-      <c r="E73" s="59" t="s">
+      <c r="E88" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C74" s="5" t="s">
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D74">
-        <f>D73-2*D67</f>
+      <c r="D89">
+        <f>D88-2*D82</f>
         <v>2.6951999999999998</v>
       </c>
-      <c r="E74" s="59" t="s">
+      <c r="E89" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="53" t="s">
+    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="54">
-        <f>D74*100/D68</f>
+      <c r="D90" s="54">
+        <f>D89*100/D83</f>
         <v>53.903999999999996</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E90" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C79" s="64" t="s">
+    <row r="93" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C94" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-    </row>
-    <row r="80" spans="3:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="9" t="s">
+      <c r="D94" s="71"/>
+      <c r="E94" s="72"/>
+    </row>
+    <row r="95" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C95" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D95" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E95" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="7" t="s">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C97" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
         <v>87</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E99" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O100"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O101"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O102"/>
+    </row>
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O103"/>
+    </row>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O104"/>
+    </row>
+    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O105"/>
+    </row>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O106"/>
+    </row>
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O107"/>
+    </row>
+    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O108"/>
+    </row>
+    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O109"/>
+    </row>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O110"/>
+    </row>
+    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O111"/>
+    </row>
+    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="O112"/>
+    </row>
+    <row r="113" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O113"/>
+    </row>
+    <row r="114" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="O114"/>
+    </row>
+    <row r="115" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M115" s="1"/>
+      <c r="O115"/>
+    </row>
+    <row r="116" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M116" s="1"/>
+      <c r="O116"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="44">
+    <mergeCell ref="C63:C76"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:I63"/>
+    <mergeCell ref="J63:S63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="J36:Y36"/>
     <mergeCell ref="J48:S48"/>
     <mergeCell ref="C38:C42"/>
     <mergeCell ref="C48:C61"/>
@@ -3617,22 +4088,6 @@
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J36:Y36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Studies/USMap_Doubleday_2024/SETUPS Description Complete.xlsx
+++ b/Studies/USMap_Doubleday_2024/SETUPS Description Complete.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sayala\Documents\GitHub\InSPIRE\Studies\USMap_Doubleday_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB492949-150A-4AFB-B383-867D185116FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3D56A2-4FE6-47DD-88B8-0922CC8F8D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{20F8F7F2-6405-4778-91BF-D0B7AC5935BA}"/>
   </bookViews>
@@ -45,7 +45,7 @@
     <author>tc={E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}</author>
   </authors>
   <commentList>
-    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{1111A611-2419-474B-8843-ABFCD803EC98}">
+    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{1111A611-2419-474B-8843-ABFCD803EC98}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
     Still starts at 0 though 😝</t>
       </text>
     </comment>
-    <comment ref="J36" authorId="1" shapeId="0" xr:uid="{C3DF5CDE-A71D-4D99-8299-51064F4348D8}">
+    <comment ref="J37" authorId="1" shapeId="0" xr:uid="{C3DF5CDE-A71D-4D99-8299-51064F4348D8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     Not inclusive; i.e. 0:3 would select blocks 0, 1 and 2</t>
       </text>
     </comment>
-    <comment ref="E43" authorId="2" shapeId="0" xr:uid="{9BA182C5-51A6-44C4-BCA5-828D6AE315C2}">
+    <comment ref="E44" authorId="2" shapeId="0" xr:uid="{9BA182C5-51A6-44C4-BCA5-828D6AE315C2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     Assuming safety edge of 0.5 m on left and right rows</t>
       </text>
     </comment>
-    <comment ref="F48" authorId="3" shapeId="0" xr:uid="{7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}">
+    <comment ref="F49" authorId="3" shapeId="0" xr:uid="{7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +81,7 @@
     Still starts at 0 though 😝</t>
       </text>
     </comment>
-    <comment ref="D49" authorId="4" shapeId="0" xr:uid="{E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}">
+    <comment ref="D50" authorId="4" shapeId="0" xr:uid="{E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="102">
   <si>
     <t>Scenario</t>
   </si>
@@ -405,6 +405,42 @@
   <si>
     <t>Other equations that assume % of spectra and tranasform units; varying if W or Wh</t>
   </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>BED Size</t>
+  </si>
+  <si>
+    <t>*Vertical: Considering half a meter farming row buffer</t>
+  </si>
+  <si>
+    <t>*Tracking-fixed: Considering 0.5 ft farming row buffer</t>
+  </si>
+  <si>
+    <t>DEFAULT CALCULATOR INSPIRE</t>
+  </si>
+  <si>
+    <t>5.5 PENDING</t>
+  </si>
+  <si>
+    <t>per Land Area</t>
+  </si>
+  <si>
+    <t>per kWdc installed</t>
+  </si>
+  <si>
+    <t>Power Calculation Normalizaiton Factor</t>
+  </si>
+  <si>
+    <t>&lt;- if expaded for system to cover an acre, what installed capacity be (function of the pitch)</t>
+  </si>
+  <si>
+    <t>Varying, …</t>
+  </si>
 </sst>
 </file>
 
@@ -413,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,8 +551,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,8 +663,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -745,11 +795,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -872,6 +937,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -899,26 +982,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,14 +1032,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>752</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>133609</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>105034</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1314,25 +1398,25 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="F36" dT="2025-08-26T20:46:04.80" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{1111A611-2419-474B-8843-ABFCD803EC98}">
+  <threadedComment ref="F37" dT="2025-08-26T20:46:04.80" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{1111A611-2419-474B-8843-ABFCD803EC98}">
     <text>This is inclusive (0 to 2 means ground blocks 0, 1 and 2)</text>
   </threadedComment>
-  <threadedComment ref="F36" dT="2025-08-26T21:20:41.65" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{C001CD15-B9F5-468C-A656-9506E0B66C16}" parentId="{1111A611-2419-474B-8843-ABFCD803EC98}">
+  <threadedComment ref="F37" dT="2025-08-26T21:20:41.65" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{C001CD15-B9F5-468C-A656-9506E0B66C16}" parentId="{1111A611-2419-474B-8843-ABFCD803EC98}">
     <text>Still starts at 0 though 😝</text>
   </threadedComment>
-  <threadedComment ref="J36" dT="2025-08-26T20:46:24.85" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{C3DF5CDE-A71D-4D99-8299-51064F4348D8}">
+  <threadedComment ref="J37" dT="2025-08-26T20:46:24.85" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{C3DF5CDE-A71D-4D99-8299-51064F4348D8}">
     <text>Not inclusive; i.e. 0:3 would select blocks 0, 1 and 2</text>
   </threadedComment>
-  <threadedComment ref="E43" dT="2025-08-26T21:15:12.41" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{9BA182C5-51A6-44C4-BCA5-828D6AE315C2}">
+  <threadedComment ref="E44" dT="2025-08-26T21:15:12.41" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{9BA182C5-51A6-44C4-BCA5-828D6AE315C2}">
     <text>Assuming safety edge of 0.5 m on left and right rows</text>
   </threadedComment>
-  <threadedComment ref="F48" dT="2025-08-26T20:46:04.80" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}">
+  <threadedComment ref="F49" dT="2025-08-26T20:46:04.80" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}">
     <text>This is inclusive (0 to 2 means ground blocks 0, 1 and 2)</text>
   </threadedComment>
-  <threadedComment ref="F48" dT="2025-08-26T21:20:41.65" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{F73B7FA7-AEF1-40D8-8FD0-E9CFB9CB9779}" parentId="{7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}">
+  <threadedComment ref="F49" dT="2025-08-26T21:20:41.65" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{F73B7FA7-AEF1-40D8-8FD0-E9CFB9CB9779}" parentId="{7E70317A-F7B8-4FB0-8AA2-4C11CA037D47}">
     <text>Still starts at 0 though 😝</text>
   </threadedComment>
-  <threadedComment ref="D49" dT="2025-08-26T21:16:42.62" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}">
+  <threadedComment ref="D50" dT="2025-08-26T21:16:42.62" personId="{7239D7DF-F240-4F71-ABD2-13E2A2CDE475}" id="{E6DDF6EE-C02E-4808-9F3D-14AAEF7C2636}">
     <text>Based on specific site pitch, choose one of these bins</text>
   </threadedComment>
 </ThreadedComments>
@@ -1340,18 +1424,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932A1107-9899-4DFE-A9E6-0ED2844D3F4A}">
-  <dimension ref="B2:AA84"/>
+  <dimension ref="B2:AA90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="11" max="11" width="17" customWidth="1"/>
@@ -1365,12 +1451,12 @@
       <c r="B2" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="67" t="s">
+      <c r="T2" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="U2" s="67"/>
-    </row>
-    <row r="3" spans="2:21" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="73"/>
+    </row>
+    <row r="3" spans="2:21" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
@@ -1420,6 +1506,9 @@
       <c r="R3" s="26" t="s">
         <v>20</v>
       </c>
+      <c r="S3" s="86" t="s">
+        <v>92</v>
+      </c>
       <c r="T3" s="25" t="s">
         <v>17</v>
       </c>
@@ -1686,72 +1775,29 @@
       </c>
       <c r="T8" s="28"/>
     </row>
-    <row r="9" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="84" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="M9" s="28"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="28"/>
+    </row>
+    <row r="10" spans="2:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1.5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1.5</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9">
-        <v>180</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0.13</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="1">
-        <v>3</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9">
-        <v>0.3</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="P9">
-        <v>80.066000000000003</v>
-      </c>
-      <c r="Q9">
-        <v>10</v>
-      </c>
-      <c r="R9" s="6">
-        <v>20</v>
-      </c>
-      <c r="T9" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="U9" s="20">
-        <f>2/0.3</f>
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>2.4</v>
-      </c>
-      <c r="D10">
-        <v>2.4</v>
       </c>
       <c r="E10" s="32" t="s">
         <v>61</v>
@@ -1792,17 +1838,15 @@
       <c r="R10" s="6">
         <v>20</v>
       </c>
-      <c r="T10" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="U10" s="20">
-        <f>2/0.3</f>
-        <v>6.666666666666667</v>
-      </c>
+      <c r="S10" t="s">
+        <v>101</v>
+      </c>
+      <c r="T10" s="28"/>
+      <c r="U10" s="20"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2.4</v>
@@ -1817,13 +1861,13 @@
         <v>180</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0.51300000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.13</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1">
         <v>3</v>
@@ -1837,7 +1881,7 @@
       <c r="N11">
         <v>0.3</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="21" t="s">
         <v>14</v>
       </c>
       <c r="P11">
@@ -1849,23 +1893,21 @@
       <c r="R11" s="6">
         <v>20</v>
       </c>
-      <c r="T11" s="28">
-        <v>0.3</v>
-      </c>
-      <c r="U11" s="20">
-        <f>2/0.3</f>
-        <v>6.666666666666667</v>
-      </c>
+      <c r="S11" t="s">
+        <v>101</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="20"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D12">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="E12" s="32" t="s">
         <v>61</v>
@@ -1874,16 +1916,16 @@
         <v>180</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0.13</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.51300000000000001</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>12</v>
@@ -1892,7 +1934,7 @@
         <v>21</v>
       </c>
       <c r="N12">
-        <v>0.18179999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>14</v>
@@ -1906,517 +1948,534 @@
       <c r="R12" s="6">
         <v>20</v>
       </c>
-      <c r="T12" s="28">
+      <c r="S12" t="s">
+        <v>101</v>
+      </c>
+      <c r="T12" s="28"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="5">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1.5</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13">
+        <v>180</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1">
+        <v>6</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13">
         <v>0.18179999999999999</v>
       </c>
-      <c r="U12" s="20">
-        <f>2/T12</f>
-        <v>11.001100110011002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="O13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13">
+        <v>80.066000000000003</v>
+      </c>
+      <c r="Q13">
         <v>10</v>
       </c>
-      <c r="C13" s="10">
+      <c r="R13" s="6">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>101</v>
+      </c>
+      <c r="T13" s="28"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10">
         <v>0.6</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D14" s="22">
         <v>2</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E14" s="23">
         <v>8.6</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F14" s="10">
         <v>90</v>
       </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>0.13</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="23" t="s">
+      <c r="J14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="23" t="s">
+      <c r="K14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="30">
+      <c r="L14" s="10"/>
+      <c r="M14" s="30">
         <v>90</v>
       </c>
-      <c r="N13" s="30">
+      <c r="N14" s="30">
         <v>0.23255813953488372</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="O14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P14" s="10">
         <v>80.066000000000003</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q14" s="10">
         <v>10</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R14" s="11">
         <v>20</v>
       </c>
-      <c r="T13" s="30">
-        <f>2/E13</f>
+      <c r="T14" s="30">
+        <f>2/E14</f>
         <v>0.23255813953488372</v>
       </c>
-      <c r="U13" s="10">
+      <c r="U14" s="10">
         <v>8.6</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="5">
-        <v>2</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>25</v>
-      </c>
-      <c r="E18" s="33">
-        <f>2*COS(RADIANS(D18))</f>
-        <v>1.8126155740732999</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="33">
-        <f>F18+E18</f>
-        <v>3.8126155740733001</v>
-      </c>
-      <c r="H18" s="34">
-        <f>B18/G18</f>
-        <v>0.52457426172218347</v>
-      </c>
-      <c r="I18" s="34">
-        <v>0.65</v>
-      </c>
-      <c r="J18" s="34">
-        <f>2/I18</f>
-        <v>3.0769230769230766</v>
-      </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="4"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <v>2</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E19" s="33">
         <f>2*COS(RADIANS(D19))</f>
-        <v>1.532088886237956</v>
+        <v>1.8126155740732999</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" s="33">
         <f>F19+E19</f>
-        <v>3.5320888862379558</v>
-      </c>
-      <c r="H19" s="34"/>
+        <v>3.8126155740733001</v>
+      </c>
+      <c r="H19" s="34">
+        <f>B19/G19</f>
+        <v>0.52457426172218347</v>
+      </c>
       <c r="I19" s="34">
-        <v>0.25</v>
+        <v>0.65</v>
       </c>
       <c r="J19" s="34">
         <f>2/I19</f>
+        <v>3.0769230769230766</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="5">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20" s="33">
+        <f>2*COS(RADIANS(D20))</f>
+        <v>1.532088886237956</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="33">
+        <f>F20+E20</f>
+        <v>3.5320888862379558</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34">
+        <v>0.25</v>
+      </c>
+      <c r="J20" s="34">
+        <f>2/I20</f>
         <v>8</v>
       </c>
-      <c r="K19" s="6"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="H20" s="34"/>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>0.18</v>
-      </c>
-      <c r="H21" s="34">
-        <f>F21/G21</f>
-        <v>11.111111111111111</v>
-      </c>
+      <c r="H21" s="34"/>
       <c r="K21" s="6"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22">
+        <v>3.8</v>
+      </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22">
-        <v>0.4</v>
+        <v>0.18</v>
       </c>
       <c r="H22" s="34">
-        <f t="shared" ref="H22:H24" si="0">F22/G22</f>
-        <v>5</v>
+        <f>F22/G22</f>
+        <v>11.111111111111111</v>
       </c>
       <c r="K22" s="6"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23">
+        <v>0.4</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" ref="H23:H25" si="0">F23/G23</f>
+        <v>5</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
         <v>0.6</v>
       </c>
-      <c r="H23" s="34">
+      <c r="H24" s="34">
         <f t="shared" si="0"/>
         <v>3.3333333333333335</v>
       </c>
-      <c r="K23" s="6"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10">
         <v>2</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G25" s="10">
         <v>0.8</v>
       </c>
-      <c r="H24" s="35">
+      <c r="H25" s="35">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="11"/>
-    </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="68" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>8</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
+      <c r="H27" s="75"/>
+      <c r="I27" s="75"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F28" s="6"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
+        <v>2</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" s="76"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C30">
-        <f>C28*COS(RADIANS(C29))</f>
+      <c r="C31">
+        <f>C29*COS(RADIANS(C30))</f>
         <v>2</v>
       </c>
-      <c r="D30">
-        <f>C30*100/C27</f>
+      <c r="D31">
+        <f>C31*100/C28</f>
         <v>25</v>
       </c>
-      <c r="E30">
-        <f>D30/10</f>
+      <c r="E31">
+        <f>D31/10</f>
         <v>2.5</v>
       </c>
-      <c r="F30" s="6">
-        <f>ROUND(D30/10,0)</f>
+      <c r="F31" s="6">
+        <f>ROUND(D31/10,0)</f>
         <v>3</v>
       </c>
-      <c r="G30" s="62" t="s">
+      <c r="G31" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="63"/>
-      <c r="I30" s="63"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+    </row>
+    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="10">
-        <f>C27-C30</f>
+      <c r="C32" s="10">
+        <f>C28-C31</f>
         <v>6</v>
       </c>
-      <c r="D31" s="10">
-        <f>C31*100/C27</f>
+      <c r="D32" s="10">
+        <f>C32*100/C28</f>
         <v>75</v>
       </c>
-      <c r="E31" s="10">
-        <f>D31/10</f>
+      <c r="E32" s="10">
+        <f>D32/10</f>
         <v>7.5</v>
       </c>
-      <c r="F31" s="11">
-        <f>ROUND(D31/10,0)</f>
+      <c r="F32" s="11">
+        <f>ROUND(D32/10,0)</f>
         <v>8</v>
       </c>
-      <c r="G31" s="62" t="s">
+      <c r="G32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-    </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="O35"/>
-    </row>
-    <row r="36" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="73"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="72" t="s">
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="62"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="73" t="s">
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="K36" s="73"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
-      <c r="Q36" s="73"/>
-      <c r="R36" s="73"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="73"/>
-      <c r="U36" s="73"/>
-      <c r="V36" s="73"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-    </row>
-    <row r="37" spans="3:25" s="37" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="73"/>
-      <c r="D37" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" s="38" t="s">
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+      <c r="W37" s="62"/>
+      <c r="X37" s="62"/>
+      <c r="Y37" s="62"/>
+    </row>
+    <row r="38" spans="3:26" s="37" customFormat="1" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="62"/>
+      <c r="D38" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F37" s="39" t="s">
+      <c r="F38" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="39" t="s">
+      <c r="G38" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H38" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I38" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J37" s="40" t="s">
+      <c r="J38" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K37" s="40" t="s">
+      <c r="K38" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L37" s="40" t="s">
+      <c r="L38" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M37" s="40" t="s">
+      <c r="M38" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N37" s="42" t="s">
+      <c r="N38" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O37" s="43" t="s">
+      <c r="O38" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P37" s="44" t="s">
+      <c r="P38" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q37" s="44" t="s">
+      <c r="Q38" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="R37" s="41" t="s">
+      <c r="R38" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="S37" s="45" t="s">
+      <c r="S38" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="T37" s="46" t="s">
+      <c r="T38" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="U37" s="47" t="s">
+      <c r="U38" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="V37" s="48" t="s">
+      <c r="V38" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="W37" s="48" t="s">
+      <c r="W38" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="X37" s="49" t="s">
+      <c r="X38" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="Y37" s="50" t="s">
+      <c r="Y38" s="50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C38" s="74" t="s">
+      <c r="Z38" s="78" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C39" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>1</v>
-      </c>
-      <c r="E38">
-        <v>5</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>7</v>
-      </c>
-      <c r="I38">
-        <v>9</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="N38">
-        <v>3</v>
-      </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
-      <c r="P38">
-        <v>4</v>
-      </c>
-      <c r="Q38">
-        <v>6</v>
-      </c>
-      <c r="R38">
-        <v>6</v>
-      </c>
-      <c r="S38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C39" s="74"/>
-      <c r="D39">
-        <v>2</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2464,10 +2523,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C40" s="74"/>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C40" s="63"/>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <v>5</v>
@@ -2515,13 +2574,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C41" s="74"/>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C41" s="63"/>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2566,22 +2625,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C42" s="74"/>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C42" s="63"/>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I42">
         <v>9</v>
@@ -2590,60 +2649,40 @@
         <v>0</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>44</v>
       </c>
       <c r="N42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R42">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C43" s="63"/>
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="T42">
-        <v>5</v>
-      </c>
-      <c r="U42">
-        <v>6</v>
-      </c>
-      <c r="V42">
-        <v>6</v>
-      </c>
-      <c r="W42">
-        <v>7</v>
-      </c>
-      <c r="X42">
-        <v>7</v>
-      </c>
-      <c r="Y42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C43" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43">
-        <v>10</v>
-      </c>
       <c r="E43">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2706,185 +2745,207 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="M44" s="1"/>
-      <c r="O44"/>
-    </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="C44" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>8.6</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>3</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+      <c r="U44">
+        <v>6</v>
+      </c>
+      <c r="V44">
+        <v>6</v>
+      </c>
+      <c r="W44">
+        <v>7</v>
+      </c>
+      <c r="X44">
+        <v>7</v>
+      </c>
+      <c r="Y44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
       <c r="M45" s="1"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
       <c r="M46" s="1"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="M47" s="1"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="75" t="s">
+    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="M48" s="1"/>
+      <c r="O48"/>
+    </row>
+    <row r="49" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D49" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="77"/>
-      <c r="F48" s="72" t="s">
+      <c r="E49" s="66"/>
+      <c r="F49" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="73" t="s">
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="K48" s="73"/>
-      <c r="L48" s="73"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
-      <c r="Q48" s="73"/>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73"/>
-    </row>
-    <row r="49" spans="3:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="75"/>
-      <c r="D49" s="76" t="s">
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+    </row>
+    <row r="50" spans="3:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="64"/>
+      <c r="D50" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="E49" s="76"/>
-      <c r="F49" s="39" t="s">
+      <c r="E50" s="65"/>
+      <c r="F50" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="G49" s="39" t="s">
+      <c r="G50" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H50" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I50" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J50" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K50" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="L49" s="40" t="s">
+      <c r="L50" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M49" s="40" t="s">
+      <c r="M50" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="N49" s="42" t="s">
+      <c r="N50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O49" s="43" t="s">
+      <c r="O50" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="P49" s="44" t="s">
+      <c r="P50" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="Q49" s="44" t="s">
+      <c r="Q50" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="R49" s="41" t="s">
+      <c r="R50" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="S49" s="45" t="s">
+      <c r="S50" s="45" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C50" s="75"/>
-      <c r="D50" s="71">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C51" s="64"/>
+      <c r="D51" s="67">
         <v>3.8</v>
       </c>
-      <c r="E50" s="71"/>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
+      <c r="E51" s="67"/>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>4</v>
       </c>
-      <c r="H50" t="s">
-        <v>45</v>
-      </c>
-      <c r="I50" t="s">
-        <v>45</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51" t="s">
+        <v>45</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>5</v>
       </c>
-      <c r="L50" t="s">
-        <v>45</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N50">
+      <c r="L51" t="s">
+        <v>45</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N51">
         <v>5</v>
       </c>
-      <c r="O50">
+      <c r="O51">
         <v>7</v>
       </c>
-      <c r="P50">
+      <c r="P51">
         <v>7</v>
-      </c>
-      <c r="Q50">
-        <v>8</v>
-      </c>
-      <c r="R50">
-        <v>8</v>
-      </c>
-      <c r="S50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C51" s="75"/>
-      <c r="D51" s="71">
-        <v>4</v>
-      </c>
-      <c r="E51" s="71"/>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
-      <c r="H51" t="s">
-        <v>45</v>
-      </c>
-      <c r="I51" t="s">
-        <v>45</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>4</v>
-      </c>
-      <c r="L51" t="s">
-        <v>45</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N51">
-        <v>4</v>
-      </c>
-      <c r="O51">
-        <v>6</v>
-      </c>
-      <c r="P51">
-        <v>6</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -2897,11 +2958,11 @@
       </c>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C52" s="75"/>
-      <c r="D52" s="71">
-        <v>4.5</v>
-      </c>
-      <c r="E52" s="71"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="67">
+        <v>4</v>
+      </c>
+      <c r="E52" s="67"/>
       <c r="F52">
         <v>0</v>
       </c>
@@ -2946,11 +3007,11 @@
       </c>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C53" s="75"/>
-      <c r="D53" s="71">
-        <v>5</v>
-      </c>
-      <c r="E53" s="71"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="67">
+        <v>4.5</v>
+      </c>
+      <c r="E53" s="67"/>
       <c r="F53">
         <v>0</v>
       </c>
@@ -2995,16 +3056,16 @@
       </c>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C54" s="75"/>
-      <c r="D54" s="71">
-        <v>5.5</v>
-      </c>
-      <c r="E54" s="71"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="67">
+        <v>5</v>
+      </c>
+      <c r="E54" s="67"/>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54" t="s">
         <v>45</v>
@@ -3016,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L54" t="s">
         <v>45</v>
@@ -3025,13 +3086,13 @@
         <v>45</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q54">
         <v>8</v>
@@ -3044,11 +3105,11 @@
       </c>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C55" s="75"/>
-      <c r="D55" s="71">
-        <v>6</v>
-      </c>
-      <c r="E55" s="71"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="67">
+        <v>5.5</v>
+      </c>
+      <c r="E55" s="67"/>
       <c r="F55">
         <v>0</v>
       </c>
@@ -3093,11 +3154,11 @@
       </c>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C56" s="75"/>
-      <c r="D56" s="71">
-        <v>6.5</v>
-      </c>
-      <c r="E56" s="71"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="67">
+        <v>6</v>
+      </c>
+      <c r="E56" s="67"/>
       <c r="F56">
         <v>0</v>
       </c>
@@ -3142,11 +3203,11 @@
       </c>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C57" s="75"/>
-      <c r="D57" s="71">
-        <v>7</v>
-      </c>
-      <c r="E57" s="71"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="67">
+        <v>6.5</v>
+      </c>
+      <c r="E57" s="67"/>
       <c r="F57">
         <v>0</v>
       </c>
@@ -3191,16 +3252,16 @@
       </c>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C58" s="75"/>
-      <c r="D58" s="71">
-        <v>7.5</v>
-      </c>
-      <c r="E58" s="71"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="67">
+        <v>7</v>
+      </c>
+      <c r="E58" s="67"/>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="s">
         <v>45</v>
@@ -3212,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="K58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" t="s">
         <v>45</v>
@@ -3221,30 +3282,30 @@
         <v>45</v>
       </c>
       <c r="N58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R58">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S58" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C59" s="75"/>
-      <c r="D59" s="71">
-        <v>8</v>
-      </c>
-      <c r="E59" s="71"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="67">
+        <v>7.5</v>
+      </c>
+      <c r="E59" s="67"/>
       <c r="F59">
         <v>0</v>
       </c>
@@ -3289,11 +3350,11 @@
       </c>
     </row>
     <row r="60" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C60" s="75"/>
-      <c r="D60" s="71">
-        <v>8.5</v>
-      </c>
-      <c r="E60" s="71"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="67">
+        <v>8</v>
+      </c>
+      <c r="E60" s="67"/>
       <c r="F60">
         <v>0</v>
       </c>
@@ -3338,11 +3399,11 @@
       </c>
     </row>
     <row r="61" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C61" s="75"/>
-      <c r="D61" s="71">
-        <v>9</v>
-      </c>
-      <c r="E61" s="71"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="67">
+        <v>8.5</v>
+      </c>
+      <c r="E61" s="67"/>
       <c r="F61">
         <v>0</v>
       </c>
@@ -3387,9 +3448,11 @@
       </c>
     </row>
     <row r="62" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>64</v>
-      </c>
+      <c r="C62" s="64"/>
+      <c r="D62" s="67">
+        <v>9</v>
+      </c>
+      <c r="E62" s="67"/>
       <c r="F62">
         <v>0</v>
       </c>
@@ -3434,63 +3497,103 @@
       </c>
     </row>
     <row r="63" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="M63" s="1"/>
-      <c r="O63"/>
-    </row>
-    <row r="64" spans="3:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N64" s="1"/>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>45</v>
+      </c>
+      <c r="I63" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63" t="s">
+        <v>45</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63">
+        <v>4</v>
+      </c>
+      <c r="Q63">
+        <v>7</v>
+      </c>
+      <c r="R63">
+        <v>7</v>
+      </c>
+      <c r="S63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="M64" s="1"/>
       <c r="O64"/>
     </row>
-    <row r="65" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C65" s="55" t="s">
+    <row r="65" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N65" s="1"/>
+      <c r="O65"/>
+    </row>
+    <row r="66" spans="3:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C66" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
-      <c r="O65"/>
-      <c r="AA65" s="1"/>
-    </row>
-    <row r="66" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C66" s="5" t="s">
+      <c r="D66" s="56"/>
+      <c r="E66" s="57"/>
+      <c r="O66"/>
+      <c r="AA66" s="1"/>
+    </row>
+    <row r="67" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E66" s="59"/>
-    </row>
-    <row r="67" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C67" s="5" t="s">
+      <c r="E67" s="59"/>
+      <c r="F67" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="83"/>
+    </row>
+    <row r="68" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="52">
-        <f>F67*0.3048</f>
+      <c r="D68" s="52">
+        <f>F68*0.3048</f>
         <v>0.15240000000000001</v>
-      </c>
-      <c r="E67" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="F67">
-        <v>0.5</v>
-      </c>
-      <c r="G67" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="3:27" x14ac:dyDescent="0.25">
-      <c r="C68" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="52">
-        <v>5</v>
       </c>
       <c r="E68" s="59" t="s">
         <v>74</v>
       </c>
+      <c r="F68" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="81" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="69" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C69" s="5" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D69" s="52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E69" s="59" t="s">
         <v>74</v>
@@ -3498,141 +3601,189 @@
     </row>
     <row r="70" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C70" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D70" s="52">
+        <v>2</v>
       </c>
       <c r="E70" s="59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C71" s="5" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <f>D69/D68</f>
-        <v>0.4</v>
-      </c>
-      <c r="E71" s="59"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="59" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="72" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C72" s="5" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D72">
-        <f>D69*COS(RADIANS(D70))</f>
-        <v>2</v>
-      </c>
-      <c r="E72" s="61" t="s">
-        <v>81</v>
-      </c>
+        <f>D70/D69</f>
+        <v>0.4</v>
+      </c>
+      <c r="E72" s="59"/>
     </row>
     <row r="73" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C73" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D73">
-        <f>D68-D72</f>
-        <v>3</v>
-      </c>
-      <c r="E73" s="59" t="s">
-        <v>74</v>
+        <f>D70*COS(RADIANS(D71))</f>
+        <v>2</v>
+      </c>
+      <c r="E73" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C74" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D74">
-        <f>D73-2*D67</f>
-        <v>2.6951999999999998</v>
+        <f>D69-D73</f>
+        <v>3</v>
       </c>
       <c r="E74" s="59" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="53" t="s">
+    <row r="75" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <f>D74-2*D68</f>
+        <v>2.6951999999999998</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D75" s="54">
-        <f>D74*100/D68</f>
+      <c r="D76" s="54">
+        <f>D75*100/D69</f>
         <v>53.903999999999996</v>
       </c>
-      <c r="E75" s="60" t="s">
+      <c r="E76" s="60" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C79" s="64" t="s">
+    <row r="77" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C77" s="79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C78" s="79" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="3:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="3:27" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C80" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="65"/>
-      <c r="E79" s="66"/>
-    </row>
-    <row r="80" spans="3:27" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="9" t="s">
+      <c r="D80" s="71"/>
+      <c r="E80" s="72"/>
+    </row>
+    <row r="81" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C81" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="58" t="s">
+      <c r="D81" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E81" s="85" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="7" t="s">
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>87</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>83</v>
       </c>
     </row>
+    <row r="87" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="3:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C88" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="D88" s="71"/>
+      <c r="E88" s="72"/>
+    </row>
+    <row r="89" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="2"/>
+      <c r="D89" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="G89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="9"/>
+      <c r="D90" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C48:C61"/>
-    <mergeCell ref="C36:C37"/>
+  <mergeCells count="31">
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J37:Y37"/>
+    <mergeCell ref="J49:S49"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="C49:C62"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D50:E50"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
     <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="J36:Y36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
